--- a/PCBs/shepherd_cape_v2.4/Bill of Materials-shepherd_v2.xlsx
+++ b/PCBs/shepherd_cape_v2.4/Bill of Materials-shepherd_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\shepherd_v2\Project Outputs for shepherd_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624555BD-312B-4B5F-9EF6-22B81755CEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C8D673D-4BF8-4DE9-8A49-78C0B5F56496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20904" yWindow="6204" windowWidth="16356" windowHeight="17376" xr2:uid="{A39D7ACC-0CDE-4EBD-9440-AE8BB88F44A6}"/>
+    <workbookView xWindow="1644" yWindow="11460" windowWidth="15552" windowHeight="12684" xr2:uid="{720350B5-51D5-4B59-B325-7EA35F845923}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-shepherd_v2" sheetId="1" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8AB94-9628-4738-8FCD-12CCBC62E7F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4346C2-5AD8-45EC-8C8A-C8251A93F38B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
